--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.25934787680264326, 0.08024270384055407, 0.1011318301121593, 0.060347240808209544, 0.06320652243483314, 0.18657242533447227, 0.29908203088843793, 0.17367868043586446, 0.02203711972053104, 0.034472153787815346, -0.005314975591231965, -0.01046895091000644, 0.13452919070520794, 0.2677602755667229, 0.11739406106603326, 0.0076051305339804, 0.02626120535685009, 0.02174826339204841, 0.002160365660303548]</t>
+    <t>[1.0, 0.27965338747024354, 0.10337298118144533, 0.12383047330708387, 0.08204911403904946, 0.09139528350251484, 0.2089788131416943, 0.30077014220122483, 0.19532568962884156, 0.04478342443896179, 0.050887328932263956, -0.0019858762001142348, 0.008145162796656698, 0.15403225909919444, 0.27581139642923996, 0.1346958144227024, 0.029256695899101667, 0.03708102648301418, 0.024622409068468788, 0.027039891351111768]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.261205648326754, 0.08201540835261031, 0.10132809684962374, 0.0603468344942114, 0.06391436192950359, 0.18792716027141965, 0.3008810148951331, 0.17462184314773035, 0.022926409539673506, 0.034164155406926716, -0.004685031196414483, -0.009249855509447217, 0.135343447166886, 0.26806045507425347, 0.11820085764398873, 0.009209606610568253, 0.02590751932671112, 0.020470795560910433, 0.0030604113812347086]</t>
+    <t>[1.0, 0.27973103817457734, 0.10332011579989726, 0.12373203730801884, 0.08157498487592384, 0.09113029714338135, 0.20918464085463365, 0.3008712964939789, 0.19534772962630334, 0.045102754144366396, 0.05105435965752363, -0.0017672486403906653, 0.00846754603055806, 0.15414556918193126, 0.27533097802052925, 0.13499678998291667, 0.029886693073867585, 0.03705918679226068, 0.024040480550208014, 0.027311856845705428]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2260.30951436159</v>
+        <v>2593.58526328259</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1343056305638665</v>
+        <v>-0.07297428785890372</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1405984146479144</v>
+        <v>0.156135521917966</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>433.7702968771803</v>
+        <v>468.9925279244225</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9335443037974683</v>
+        <v>0.9427402862985685</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01653149215147305</v>
+        <v>-0.2409121847464984</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1337848362156401</v>
+        <v>0.1353672079848004</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>452.8899395051749</v>
+        <v>497.6646720322361</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.666474096740145</v>
+        <v>-0.1706559714051568</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1949508505165101</v>
+        <v>0.1738265302077644</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>416.1466970756001</v>
+        <v>442.5560976754697</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.27965338747024354, 0.10337298118144533, 0.12383047330708387, 0.08204911403904946, 0.09139528350251484, 0.2089788131416943, 0.30077014220122483, 0.19532568962884156, 0.04478342443896179, 0.050887328932263956, -0.0019858762001142348, 0.008145162796656698, 0.15403225909919444, 0.27581139642923996, 0.1346958144227024, 0.029256695899101667, 0.03708102648301418, 0.024622409068468788, 0.027039891351111768]</t>
+    <t>[0.9999999999999998, 0.2697471479250945, 0.08056301242197841, 0.10767710410810079, 0.06740160389479591, 0.07291454959977428, 0.2021877883769963, 0.2996385617515471, 0.18863229768646625, 0.03421044222516456, 0.04487798379008036, -0.009599839556339744, -0.003420368383145465, 0.14922228837514626, 0.2761980685595401, 0.1308614903440215, 0.020732076694759256, 0.03080867503577077, 0.018376100044635614, 0.01582687909233444]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.27973103817457734, 0.10332011579989726, 0.12373203730801884, 0.08157498487592384, 0.09113029714338135, 0.20918464085463365, 0.3008712964939789, 0.19534772962630334, 0.045102754144366396, 0.05105435965752363, -0.0017672486403906653, 0.00846754603055806, 0.15414556918193126, 0.27533097802052925, 0.13499678998291667, 0.029886693073867585, 0.03705918679226068, 0.024040480550208014, 0.027311856845705428]</t>
+    <t>[1.0, 0.2702649837409783, 0.08150295564028422, 0.10686369009594729, 0.06678014298055358, 0.0733501840236131, 0.20201307761307818, 0.29971925746473255, 0.18902944062853014, 0.034868310929965, 0.04611318814203395, -0.008944689533151173, -0.0022097885189514333, 0.14911228119799902, 0.27538483164479055, 0.13185539188625794, 0.022431954932640216, 0.03207234957281962, 0.017781562171402056, 0.016042924217245715]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.07297428785890372</v>
+        <v>-0.07207301552186338</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.156135521917966</v>
+        <v>2.760226487825269</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>468.9925279244225</v>
+        <v>469.6647525720194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.2409121847464984</v>
+        <v>-0.458608448726636</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1353672079848004</v>
+        <v>1.723351935365844</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>497.6646720322361</v>
+        <v>498.6262697683093</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1706559714051568</v>
+        <v>-0.7901923414700616</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1738265302077644</v>
+        <v>4.405358692079237</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>442.5560976754697</v>
+        <v>442.6387877663026</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.25138783485146454, 0.05963788692678242, 0.08706716735468539, 0.047963936577402985, 0.04724282053142839, 0.18173026002633266, 0.2990523555513298, 0.16933141924118467, 0.013015953038007642, 0.029135210154418785, -0.01164865384445194, -0.019659319285466388, 0.13145731725003734, 0.2688469327821986, 0.11512813446944227, 0.00042089332110991354, 0.020999952681857278, 0.016269649181354973, -0.0070924982645349365]</t>
+    <t>[1.0, 0.25934787680264326, 0.08024270384055407, 0.1011318301121593, 0.060347240808209544, 0.06320652243483314, 0.18657242533447227, 0.29908203088843793, 0.17367868043586446, 0.02203711972053104, 0.034472153787815346, -0.005314975591231965, -0.01046895091000644, 0.13452919070520794, 0.2677602755667229, 0.11739406106603326, 0.0076051305339804, 0.02626120535685009, 0.02174826339204841, 0.002160365660303548]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2523495983880575, 0.06059772152921939, 0.08634491147665313, 0.04772295602414952, 0.04786043649739612, 0.1821070148029784, 0.2997606080000631, 0.1701289220862995, 0.014215797117365961, 0.02976623855748514, -0.010741100090689555, -0.018393813722682215, 0.13160042802828073, 0.26811797333891446, 0.11603440592065524, 0.0022379026063884884, 0.021880806189888174, 0.015651666159638054, -0.006795673856451771]</t>
+    <t>[1.0, 0.261205648326754, 0.08201540835261031, 0.10132809684962374, 0.0603468344942114, 0.06391436192950359, 0.18792716027141965, 0.3008810148951331, 0.17462184314773035, 0.022926409539673506, 0.034164155406926716, -0.004685031196414483, -0.009249855509447217, 0.135343447166886, 0.26806045507425347, 0.11820085764398873, 0.009209606610568253, 0.02590751932671112, 0.020470795560910433, 0.0030604113812347086]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1539544284409817</v>
+        <v>-0.1343056305638665</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.23734585894697</v>
+        <v>0.1405984146479144</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>434.4353752413298</v>
+        <v>433.7702968771803</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1142967356888625</v>
+        <v>0.01653149215147305</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.890146885225956</v>
+        <v>0.1337848362156401</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>453.6594347092513</v>
+        <v>452.8899395051749</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1.084138187446309</v>
+        <v>-0.666474096740145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4.090947764356711</v>
+        <v>0.1949508505165101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>416.5290802196437</v>
+        <v>416.1466970756001</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.25934787680264326, 0.08024270384055407, 0.1011318301121593, 0.060347240808209544, 0.06320652243483314, 0.18657242533447227, 0.29908203088843793, 0.17367868043586446, 0.02203711972053104, 0.034472153787815346, -0.005314975591231965, -0.01046895091000644, 0.13452919070520794, 0.2677602755667229, 0.11739406106603326, 0.0076051305339804, 0.02626120535685009, 0.02174826339204841, 0.002160365660303548]</t>
+    <t>[1.0, 0.25934787680264315, 0.08024270384055404, 0.1011318301121593, 0.060347240808209565, 0.06320652243483312, 0.18657242533447235, 0.29908203088843793, 0.17367868043586449, 0.02203711972053104, 0.034472153787815374, -0.00531497559123198, -0.010468950910006424, 0.13452919070520794, 0.26776027556672277, 0.11739406106603331, 0.007605130533980377, 0.02626120535685012, 0.021748263392048446, 0.0021603656603035723]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.261205648326754, 0.08201540835261031, 0.10132809684962374, 0.0603468344942114, 0.06391436192950359, 0.18792716027141965, 0.3008810148951331, 0.17462184314773035, 0.022926409539673506, 0.034164155406926716, -0.004685031196414483, -0.009249855509447217, 0.135343447166886, 0.26806045507425347, 0.11820085764398873, 0.009209606610568253, 0.02590751932671112, 0.020470795560910433, 0.0030604113812347086]</t>
+    <t>[1.0, 0.261205648326754, 0.08201540835261027, 0.10132809684962375, 0.06034683449421136, 0.06391436192950357, 0.1879271602714197, 0.3008810148951329, 0.17462184314773033, 0.022926409539673495, 0.03416415540692668, -0.0046850311964145, -0.009249855509447211, 0.13534344716688598, 0.26806045507425363, 0.11820085764398873, 0.009209606610568213, 0.02590751932671113, 0.02047079556091043, 0.003060411381234692]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1343056305638665</v>
+        <v>-0.1343056305638666</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>433.7702968771803</v>
+        <v>433.7702968771802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9335443037974683</v>
+        <v>0.4828150572831424</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01653149215147305</v>
+        <v>0.01653149215147404</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1337848362156401</v>
+        <v>0.1337848362156402</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.666474096740145</v>
+        <v>-0.6664740967401456</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1949508505165101</v>
+        <v>0.19495085051651</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>416.1466970756001</v>
+        <v>416.1466970756002</v>
       </c>
     </row>
     <row r="10" spans="1:2">
